--- a/Jashera 2024/Документы по ЛОК/Акты передачи сублиматов/Выдача сублиматов.xlsx
+++ b/Jashera 2024/Документы по ЛОК/Акты передачи сублиматов/Выдача сублиматов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="17771" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,12 +382,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,67 +735,67 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
@@ -1187,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="B2:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1339,18 +1333,16 @@
         <v>13300</v>
       </c>
       <c r="H4" s="6">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I4" s="6">
         <f>C4*H4</f>
-        <v>8050</v>
-      </c>
-      <c r="J4" s="6">
-        <v>23</v>
-      </c>
+        <v>16100</v>
+      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="6">
         <f>C4*J4</f>
-        <v>8050</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6">
         <v>23</v>
@@ -1418,18 +1410,16 @@
         <v>7500</v>
       </c>
       <c r="H5" s="6">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5:I11" si="2">C5*H5</f>
-        <v>6000</v>
-      </c>
-      <c r="J5" s="6">
-        <v>24</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="6">
         <f t="shared" ref="K5:K11" si="3">C5*J5</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="L5" s="6">
         <v>24</v>
@@ -1497,18 +1487,16 @@
         <v>1600</v>
       </c>
       <c r="H6" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="2"/>
-        <v>1600</v>
-      </c>
-      <c r="J6" s="6">
-        <v>8</v>
-      </c>
+        <v>3200</v>
+      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
         <v>8</v>
@@ -1576,18 +1564,16 @@
         <v>1050</v>
       </c>
       <c r="H7" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
-        <v>1050</v>
-      </c>
-      <c r="J7" s="6">
-        <v>6</v>
-      </c>
+        <v>2100</v>
+      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="6">
         <f t="shared" si="3"/>
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6">
         <v>6</v>
@@ -1655,18 +1641,16 @@
         <v>1400</v>
       </c>
       <c r="H8" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="2"/>
-        <v>700</v>
-      </c>
-      <c r="J8" s="6">
-        <v>4</v>
-      </c>
+        <v>1400</v>
+      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="6">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L8" s="6">
         <v>4</v>
@@ -1734,18 +1718,16 @@
         <v>1400</v>
       </c>
       <c r="H9" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="2"/>
-        <v>700</v>
-      </c>
-      <c r="J9" s="6">
-        <v>4</v>
-      </c>
+        <v>1400</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="6">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6">
         <v>4</v>
@@ -1813,18 +1795,16 @@
         <v>1800</v>
       </c>
       <c r="H10" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="J10" s="6">
-        <v>6</v>
-      </c>
+        <v>2400</v>
+      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="6">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6">
         <v>6</v>
@@ -1892,18 +1872,16 @@
         <v>900</v>
       </c>
       <c r="H11" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-      <c r="J11" s="6">
-        <v>6</v>
-      </c>
+        <v>1800</v>
+      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="6">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L11" s="6">
         <v>6</v>
@@ -1960,11 +1938,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ref="I12" si="11">SUM(I4:I11)</f>
-        <v>20200</v>
+        <v>40400</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ref="K12" si="12">SUM(K4:K11)</f>
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ref="M12" si="13">SUM(M4:M11)</f>
